--- a/xlsx/FR/investments_effects_FR.xlsx
+++ b/xlsx/FR/investments_effects_FR.xlsx
@@ -12,30 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">Reduce air pollution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase the use of public transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make electricity production greener</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neither agree or disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly agree</t>
   </si>
 </sst>
 </file>
@@ -386,13 +389,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.0245930127880273</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.058466254579395</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0410259917154121</v>
       </c>
     </row>
     <row r="3">
@@ -400,13 +403,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.0507307464573253</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.0563045528882137</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.0536299433070348</v>
       </c>
     </row>
     <row r="4">
@@ -414,13 +417,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.251027093032744</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.358386707797759</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.332448318398604</v>
       </c>
     </row>
     <row r="5">
@@ -428,13 +431,27 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.44906177443624</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.362123083837172</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.413252027725889</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.224587373285664</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.16471940089746</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.159643718853061</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/investments_effects_FR.xlsx
+++ b/xlsx/FR/investments_effects_FR.xlsx
@@ -389,13 +389,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0245930127880273</v>
+        <v>0.0259676248101682</v>
       </c>
       <c r="C2" t="n">
-        <v>0.058466254579395</v>
+        <v>0.0459324308033092</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0410259917154121</v>
+        <v>0.0438388050518622</v>
       </c>
     </row>
     <row r="3">
@@ -403,13 +403,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0507307464573253</v>
+        <v>0.0641957352438063</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0563045528882137</v>
+        <v>0.0718995861719861</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0536299433070348</v>
+        <v>0.0489068526855705</v>
       </c>
     </row>
     <row r="4">
@@ -417,13 +417,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.251027093032744</v>
+        <v>0.23588425285105</v>
       </c>
       <c r="C4" t="n">
-        <v>0.358386707797759</v>
+        <v>0.349977863753966</v>
       </c>
       <c r="D4" t="n">
-        <v>0.332448318398604</v>
+        <v>0.327848505073519</v>
       </c>
     </row>
     <row r="5">
@@ -431,13 +431,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.44906177443624</v>
+        <v>0.461632979873464</v>
       </c>
       <c r="C5" t="n">
-        <v>0.362123083837172</v>
+        <v>0.352465344546897</v>
       </c>
       <c r="D5" t="n">
-        <v>0.413252027725889</v>
+        <v>0.423280630353933</v>
       </c>
     </row>
     <row r="6">
@@ -445,13 +445,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.224587373285664</v>
+        <v>0.212319407221512</v>
       </c>
       <c r="C6" t="n">
-        <v>0.16471940089746</v>
+        <v>0.179724774723842</v>
       </c>
       <c r="D6" t="n">
-        <v>0.159643718853061</v>
+        <v>0.156125206835116</v>
       </c>
     </row>
   </sheetData>
